--- a/medicine/Sexualité et sexologie/Le_Piquant_de_la_vie/Le_Piquant_de_la_vie.xlsx
+++ b/medicine/Sexualité et sexologie/Le_Piquant_de_la_vie/Le_Piquant_de_la_vie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Piquant de la vie (Mejor que nunca) est un film écrit et réalisé par Dolores Payas sorti en 2008.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabel est cadre dirigeante d'une grande entreprise, arrivée à la cinquantaine, elle n'a plus de désir et son mari l'a quitté pour aller vivre avec sa maîtresse enceinte. Elle envoie promener tous ses amis qui lui conseillent de suivre un traitement hormonal afin de se sentir mieux dans sa peau, répondant qu'il vaut mieux laisser faire la nature. Un soir en revenant d'un vernissage, et se promenant à pied, elle rencontre Emiliano, charmeur et dominateur, il la subjugue, lui donne des ordres, l'emmène danser puis ils couchent ensemble chez elle. Cette rencontre l'a transformé, mais l'homme est reparti sans donner ses coordonnées. Curieuse, elle entre dans une sex-shop où on lui conseille d'acheter des vidéos gays. Quand elle veut les visionner, on sonne à sa porte, c'est sa fille, son gendre et leurs deux enfants. La fille, Sybilla très psychorigide fait tout un discours convenu à sa mère sur la façon d'aborder le stress de la séparation, Isabelle l'envoie vertement promener en tenant des propos que sa fille juge choquants, pendant ce temps les enfants demandent à visionner des DVD.... la petite famille quitte l'appartement scandalisée. 
 La police sonne à son tour, on lui apprend qu'Emiliano est recherché. Elle refuse de collaborer avec la police mais s'inquiète. Emiliano réapparaît pour l'emmener en boite. Mais au bout d'un moment l'homme lui demande de partir précipitamment et de se mettre au volant de sa voiture, arrivent alors deux hommes soutenant difficilement un troisième, en fait ce dernier est mort. Isabel est de plus en plus inquiète. On emmène le mort dans une grande maison, on l'expose, et on fait la fête.
@@ -547,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Mejor que nunca
 Titre français : Le Piquant de la vie
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Victoria Abril : Isabel Romero
 Joan Carreras : Bernardo, le gendre
